--- a/data/trans_camb/P74B-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P74B-Provincia-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8.493041884107317</v>
+        <v>8.486087412167445</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.009585134128264262</v>
+        <v>-0.2362697551162655</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-39.33887975949648</v>
+        <v>-37.35236937599219</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-59.41802940231275</v>
+        <v>-58.18496723205053</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.072433019061044</v>
+        <v>2.529081837352998</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-12.59618472113102</v>
+        <v>-12.10982012771242</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>31.30177638005825</v>
+        <v>31.64484785002123</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.11711035032438</v>
+        <v>19.02531939525441</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-9.773129757861767</v>
+        <v>-7.329960328703025</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-28.09874825417782</v>
+        <v>-27.01233969739907</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>27.08817425932723</v>
+        <v>25.68289173908269</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.493756186005269</v>
+        <v>9.356622965569557</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.6433592478232377</v>
+        <v>0.5109614814449354</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.03220413153108303</v>
+        <v>-0.1301786844461074</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4115922436029084</v>
+        <v>-0.3938342832790102</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6228533672708852</v>
+        <v>-0.6169805795105445</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06840547375991017</v>
+        <v>0.07004778855560234</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3327089399020324</v>
+        <v>-0.3408382185135062</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>6.045934458809843</v>
+        <v>6.300122973147734</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.756810788566973</v>
+        <v>3.658941233267905</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.114688931521389</v>
+        <v>-0.09075810798712079</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.3246795004442774</v>
+        <v>-0.3128652641550478</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.064321375654983</v>
+        <v>1.016471377842135</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3735694248698</v>
+        <v>0.360277025705563</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.469556382062125</v>
+        <v>-1.648578593602052</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.828354143340857</v>
+        <v>-3.295230797727609</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-21.07103315201284</v>
+        <v>-20.96383115908365</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-25.46762517407886</v>
+        <v>-24.92668346709694</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.2130433340612889</v>
+        <v>0.2040357256894147</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.564688834142708</v>
+        <v>-4.323915874755651</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.095061941152688</v>
+        <v>8.824481887655097</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.633674033439468</v>
+        <v>5.017558645707748</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.969780188824686</v>
+        <v>2.386100257967561</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-3.707942116551209</v>
+        <v>-2.123754014674662</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>13.50404715642829</v>
+        <v>14.66187898235828</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>9.210132251412597</v>
+        <v>10.17858055381724</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2582456637338491</v>
+        <v>-0.3012467156378464</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5126136685845549</v>
+        <v>-0.4935789530764183</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2499364281178473</v>
+        <v>-0.2521025937634092</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3062370321144009</v>
+        <v>-0.2974187369343584</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.003754597001825529</v>
+        <v>0.003356649508109848</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1281001511751386</v>
+        <v>-0.146459720952097</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.113389215615867</v>
+        <v>3.173292029641408</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.428359359928856</v>
+        <v>1.747924802294839</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.02841680467800971</v>
+        <v>0.03293952710726573</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.05191257229786686</v>
+        <v>-0.02938512400985379</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6133017602468079</v>
+        <v>0.6903544447351808</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4004895302604591</v>
+        <v>0.4789638461816257</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5499507720142061</v>
+        <v>0.8104126616310804</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.791044788757852</v>
+        <v>3.409692321609381</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-30.18866713222079</v>
+        <v>-29.54797068467512</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-34.0096778839098</v>
+        <v>-36.16370177201883</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.488527605616174</v>
+        <v>-6.249829396974707</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.815542717302992</v>
+        <v>-4.206539185752259</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.9753243804851</v>
+        <v>12.51782885187994</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.62033441420889</v>
+        <v>16.00990227460755</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-1.711215188205407</v>
+        <v>-0.489454926295397</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-6.652711892943164</v>
+        <v>-6.178748338507285</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>11.89991938630626</v>
+        <v>12.33572777293186</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>13.81654335828665</v>
+        <v>13.04529479913748</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1065383174885883</v>
+        <v>-0.0003064194375201565</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2770994063809009</v>
+        <v>0.343016282970332</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3371013949471812</v>
+        <v>-0.3302127361640487</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3872241606079143</v>
+        <v>-0.4002945593717546</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.213804250505059</v>
+        <v>-0.2082287541395281</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1301523039294429</v>
+        <v>-0.1470966672070788</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>8.186527715744228</v>
+        <v>8.986297480798363</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>10.60854810687708</v>
+        <v>11.31507124124222</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.02290535222411407</v>
+        <v>-0.00372002524653167</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.09192657974540087</v>
+        <v>-0.07985443916746746</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5596961011876986</v>
+        <v>0.5535203983120698</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6189433017787647</v>
+        <v>0.5874707096460683</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.943699032772024</v>
+        <v>-2.155496545954899</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.551709282482479</v>
+        <v>-4.92573436359084</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-16.10291007325774</v>
+        <v>-16.0990497016742</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-25.40743848998738</v>
+        <v>-25.24526767690648</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.390862684600267</v>
+        <v>-0.9087357938656506</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.475374067555167</v>
+        <v>-5.093347060843989</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>15.64694712582619</v>
+        <v>16.19716655763891</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.61752486971708</v>
+        <v>11.53690047191581</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.378336391910286</v>
+        <v>7.091512053805404</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.9290902234671595</v>
+        <v>-1.385137113897729</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>17.27354536384342</v>
+        <v>17.27395777498734</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>13.3493198948895</v>
+        <v>12.19691250384068</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1770485147828057</v>
+        <v>-0.1339500895808521</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2669343742623375</v>
+        <v>-0.2808860596275402</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1879377327317215</v>
+        <v>-0.1822519918865216</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.289305381135087</v>
+        <v>-0.2893096583570459</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.03584534699496129</v>
+        <v>-0.02352274187778993</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.08836395958642815</v>
+        <v>-0.1270879424427773</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.622408033347439</v>
+        <v>1.60967451519702</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.247667650453523</v>
+        <v>1.252627206136925</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.06637964763229302</v>
+        <v>0.09196233172862929</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.01373454223044038</v>
+        <v>-0.01973706854468566</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5318959831006077</v>
+        <v>0.5388803757659679</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4350671234746136</v>
+        <v>0.3767062727608925</v>
       </c>
     </row>
     <row r="28">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-7.735652275686002</v>
+        <v>-7.214170811366404</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.6284721048615226</v>
+        <v>0.7974738842595407</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-34.36993844856066</v>
+        <v>-31.98729916193691</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-38.934699966312</v>
+        <v>-38.59245260972996</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-13.4383034163734</v>
+        <v>-12.42569640404971</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-10.34596194802878</v>
+        <v>-11.03050119533791</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>16.77311775516466</v>
+        <v>15.81153423091372</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>21.62211826902703</v>
+        <v>23.46041197810075</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.917403516561761</v>
+        <v>1.571559941810585</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-5.160112614781287</v>
+        <v>-5.224036371602827</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>10.42392848938115</v>
+        <v>11.52400737576624</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>12.17249211379253</v>
+        <v>11.67152406362806</v>
       </c>
     </row>
     <row r="31">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4537626631395347</v>
+        <v>-0.4438397441512215</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.06520561875466294</v>
+        <v>-0.001150002558148342</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.386103972282628</v>
+        <v>-0.3562208143201417</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.4280264632309963</v>
+        <v>-0.4401591756837176</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2927657514939894</v>
+        <v>-0.277326301168149</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2247578151322461</v>
+        <v>-0.2341159421484398</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.42934089521669</v>
+        <v>2.471761476585775</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>3.542525376403467</v>
+        <v>3.703708016759256</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.01340505825859057</v>
+        <v>0.01881667827435386</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.07283560412550864</v>
+        <v>-0.09675210136031621</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3228876437512739</v>
+        <v>0.3546720038653242</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3867522440011557</v>
+        <v>0.3560183874585053</v>
       </c>
     </row>
     <row r="34">
@@ -1435,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.8708211109774942</v>
+        <v>0.8185492792116078</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.833702565390097</v>
+        <v>-3.591893667915589</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-38.45613101225433</v>
+        <v>-37.91771377048111</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-27.41585467907004</v>
+        <v>-27.14420513059483</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-6.895857521519358</v>
+        <v>-6.864922825573888</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-3.805413523715041</v>
+        <v>-4.656740448819257</v>
       </c>
     </row>
     <row r="36">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>12.85872105497907</v>
+        <v>12.70072622315557</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>7.536119746282812</v>
+        <v>6.885947081169602</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-9.179876470487896</v>
+        <v>-11.02897898549972</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.363812235238427</v>
+        <v>4.057678055847606</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>11.03507019961233</v>
+        <v>11.20886863556692</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>15.40237685343771</v>
+        <v>14.61316507236181</v>
       </c>
     </row>
     <row r="37">
@@ -1513,20 +1513,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.02707340113103498</v>
-      </c>
-      <c r="D38" s="6" t="inlineStr"/>
+        <v>-0.110811824435774</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4437764485202071</v>
+        <v>-0.4305007345846836</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.3085011856125983</v>
+        <v>-0.3069758251522366</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2137887646187733</v>
+        <v>-0.2202621552071249</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1168332881387797</v>
+        <v>-0.1587777146305113</v>
       </c>
     </row>
     <row r="39">
@@ -1537,20 +1539,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>13.73914228810307</v>
-      </c>
-      <c r="D39" s="6" t="inlineStr"/>
+        <v>11.39658344909358</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>6.392732401226967</v>
+      </c>
       <c r="E39" s="6" t="n">
-        <v>-0.1301948308568355</v>
+        <v>-0.1408677894732559</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.01264921200567401</v>
+        <v>0.053467910297086</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.4806773268471418</v>
+        <v>0.4878336628010902</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.6787210585387722</v>
+        <v>0.642267862881885</v>
       </c>
     </row>
     <row r="40">
@@ -1591,22 +1595,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.2803018565778356</v>
+        <v>-0.5557433767336191</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.007449361842394</v>
+        <v>-3.799573009568254</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-24.39493088475644</v>
+        <v>-24.87358749759421</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-24.3871102685575</v>
+        <v>-23.19418149266325</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.653921841783859</v>
+        <v>-2.299502138786018</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-5.516208022622859</v>
+        <v>-6.296930151460966</v>
       </c>
     </row>
     <row r="42">
@@ -1617,22 +1621,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>10.84106282221628</v>
+        <v>10.6554017722875</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>7.300008255583931</v>
+        <v>6.789253737366542</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-5.065832667717921</v>
+        <v>-4.028738286315623</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-1.473906775085543</v>
+        <v>-0.8274609911567565</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>11.17842025419105</v>
+        <v>11.14829001237893</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>7.480365673644354</v>
+        <v>7.925950009678349</v>
       </c>
     </row>
     <row r="43">
@@ -1669,22 +1673,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.0511763213484799</v>
+        <v>-0.07124973258282884</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3885558139001197</v>
+        <v>-0.3698680297986726</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2851560268320056</v>
+        <v>-0.2907919424649337</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2885601032346131</v>
+        <v>-0.2808163989725821</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.07959270057762931</v>
+        <v>-0.06799043627506765</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1667666053730747</v>
+        <v>-0.1887626725071711</v>
       </c>
     </row>
     <row r="45">
@@ -1695,22 +1699,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.948439847842554</v>
+        <v>1.719310569882815</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.183250248388504</v>
+        <v>1.040137692720138</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.06343197250052904</v>
+        <v>-0.05461166838769799</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.0255963540172541</v>
+        <v>-0.02036549627478977</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.4148464516911877</v>
+        <v>0.4086426338853544</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2821385580815738</v>
+        <v>0.2884085903309039</v>
       </c>
     </row>
     <row r="46">
@@ -1751,22 +1755,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-4.144195997058231</v>
+        <v>-3.826485417245823</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>1.644358678537368</v>
+        <v>0.8965617389728455</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-23.73108886568168</v>
+        <v>-23.75770743961591</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-20.22190247721015</v>
+        <v>-20.2260625092767</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-5.037412640703113</v>
+        <v>-5.09583344717016</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>0.4098947687672411</v>
+        <v>-0.2051268914545374</v>
       </c>
     </row>
     <row r="48">
@@ -1777,22 +1781,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>4.694238670127137</v>
+        <v>5.17055065363141</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>12.34375503357133</v>
+        <v>11.8241303948773</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-4.999199601992703</v>
+        <v>-5.06076633102006</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-2.15438526171944</v>
+        <v>-2.351223014684708</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>7.588066205394652</v>
+        <v>7.671982043312537</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>12.7067826246547</v>
+        <v>12.49999882441654</v>
       </c>
     </row>
     <row r="49">
@@ -1829,22 +1833,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.3777664402668298</v>
+        <v>-0.3624907965515307</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.1157022396996358</v>
+        <v>0.05501769575178972</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2762321824020791</v>
+        <v>-0.2708114349538162</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.2305924871371504</v>
+        <v>-0.238171764605927</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.1469401655615736</v>
+        <v>-0.146837434520709</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.01129805347585353</v>
+        <v>-0.005122487373196719</v>
       </c>
     </row>
     <row r="51">
@@ -1855,22 +1859,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.7681261719268963</v>
+        <v>0.8377588318016238</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>2.007703437077761</v>
+        <v>1.838208757721632</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.06874884419682258</v>
+        <v>-0.06436648717513362</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.02815242106951408</v>
+        <v>-0.03259563758493658</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.2738384470961469</v>
+        <v>0.2806771885639254</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.4471515518875639</v>
+        <v>0.446498618261654</v>
       </c>
     </row>
     <row r="52">
@@ -1911,22 +1915,22 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>2.590709354987594</v>
+        <v>2.577593440924996</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>2.730589310541826</v>
+        <v>2.470206977722226</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-19.4782350497656</v>
+        <v>-19.18628273635657</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-21.14928753904784</v>
+        <v>-21.35775448904167</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>1.581315608124065</v>
+        <v>1.585378498726788</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>0.5742528020476774</v>
+        <v>0.6613155695823716</v>
       </c>
     </row>
     <row r="54">
@@ -1937,22 +1941,22 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>7.427830559759756</v>
+        <v>7.375497081499015</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>7.173830043396075</v>
+        <v>7.023418173726522</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-10.16093471205363</v>
+        <v>-10.60902133358553</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>-12.24097643204549</v>
+        <v>-12.21203976366374</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>7.400297425403002</v>
+        <v>7.452161389958648</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>6.282857135794797</v>
+        <v>6.529553113976815</v>
       </c>
     </row>
     <row r="55">
@@ -1989,22 +1993,22 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.2895534197127685</v>
+        <v>0.3023909270040445</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.2997282588130495</v>
+        <v>0.2881899941817123</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.2314411099316071</v>
+        <v>-0.2247801865012078</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.2502378926641773</v>
+        <v>-0.2502259981051022</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.05169966826170003</v>
+        <v>0.0508656471275783</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.01864411514973913</v>
+        <v>0.02097000601829263</v>
       </c>
     </row>
     <row r="57">
@@ -2015,22 +2019,22 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>1.165610797628894</v>
+        <v>1.123290734967819</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>1.086669515173662</v>
+        <v>1.076733949511451</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.1265163409869503</v>
+        <v>-0.1304705232653952</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>-0.1510326478983651</v>
+        <v>-0.1504977650063318</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.2596903223570888</v>
+        <v>0.2579337663948753</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.2197890106933617</v>
+        <v>0.2252158862372846</v>
       </c>
     </row>
     <row r="58">
